--- a/sd-update-system-identifier-orga/ig/StructureDefinition-ror-organization.xlsx
+++ b/sd-update-system-identifier-orga/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:03:30+00:00</t>
+    <t>2024-04-11T09:15:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1149,7 +1149,7 @@
     <t>Organization.identifier:finess.system</t>
   </si>
   <si>
-    <t>http://finess.esante.gouv.fr</t>
+    <t>https://finess.esante.gouv.fr</t>
   </si>
   <si>
     <t>Organization.identifier:finess.value</t>
@@ -1237,7 +1237,7 @@
     <t>Organization.identifier:rppsRang.system</t>
   </si>
   <si>
-    <t>http://rppsrang.esante.gouv.fr</t>
+    <t>https://rppsrang.esante.gouv.fr</t>
   </si>
   <si>
     <t>Organization.identifier:rppsRang.value</t>
@@ -1366,7 +1366,7 @@
     <t>Organization.identifier:adeliRang.system</t>
   </si>
   <si>
-    <t>http://adelirang.esante.gouv.fr</t>
+    <t>https://adelirang.esante.gouv.fr</t>
   </si>
   <si>
     <t>Organization.identifier:adeliRang.value</t>

--- a/sd-update-system-identifier-orga/ig/StructureDefinition-ror-organization.xlsx
+++ b/sd-update-system-identifier-orga/ig/StructureDefinition-ror-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T09:15:06+00:00</t>
+    <t>2024-04-11T09:20:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1193,7 +1193,7 @@
     <t>Organization.identifier:sirene.system</t>
   </si>
   <si>
-    <t>http://sirene.fr</t>
+    <t>https://sirene.fr</t>
   </si>
   <si>
     <t>Organization.identifier:sirene.value</t>
